--- a/Excel - Project 01.xlsx
+++ b/Excel - Project 01.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EF3D0B-6A15-487D-8C3A-717A275DBDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2923F17-4598-44F2-B115-9C6384152D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enrollment" sheetId="23" r:id="rId1"/>
-    <sheet name="Subtititles" sheetId="14" r:id="rId2"/>
+    <sheet name="Subtitutes" sheetId="14" r:id="rId2"/>
     <sheet name="Summary" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="Sales by Exam" sheetId="26" state="hidden" r:id="rId4"/>
     <sheet name="Instructional Hours" sheetId="20" r:id="rId5"/>
@@ -20,7 +20,6 @@
   <externalReferences>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Instructional Hours'!$A$2:$G$52</definedName>
@@ -601,9 +600,6 @@
     <t>+</t>
   </si>
   <si>
-    <t>HOCICT Official Channel</t>
-  </si>
-  <si>
     <t>Subcribe Results</t>
   </si>
   <si>
@@ -614,6 +610,9 @@
   </si>
   <si>
     <t>IIG Registered</t>
+  </si>
+  <si>
+    <t>IIG Official Channel</t>
   </si>
 </sst>
 </file>
@@ -1208,24 +1207,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1242,7 +1223,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -13879,70 +13878,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Contact"/>
-      <sheetName val="1"/>
-      <sheetName val="Historical Sales"/>
-      <sheetName val="Summary"/>
-      <sheetName val="Sales"/>
-      <sheetName val="Authors"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Registered</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>IC3</v>
-          </cell>
-          <cell r="B4">
-            <v>1447</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>IELTS</v>
-          </cell>
-          <cell r="B5">
-            <v>2004</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>MOS</v>
-          </cell>
-          <cell r="B6">
-            <v>2042</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>TOEIC</v>
-          </cell>
-          <cell r="B7">
-            <v>1503</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -14403,7 +14338,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I2" sqref="I2:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14418,15 +14353,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="A1" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -14450,11 +14385,11 @@
       <c r="G2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
       <c r="M2" s="30" t="s">
         <v>20</v>
       </c>
@@ -14482,9 +14417,9 @@
         <v>721</v>
       </c>
       <c r="G3" s="24"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
       <c r="M3" s="19" t="s">
         <v>21</v>
       </c>
@@ -14512,10 +14447,10 @@
         <v>906</v>
       </c>
       <c r="G4" s="24"/>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="45"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="8"/>
       <c r="M4" s="21" t="s">
         <v>23</v>
@@ -14544,10 +14479,10 @@
         <v>529</v>
       </c>
       <c r="G5" s="24"/>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="J5" s="47"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="18"/>
       <c r="M5" s="19" t="s">
         <v>24</v>
@@ -15342,7 +15277,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15594,21 +15531,21 @@
         <v>19</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -15930,7 +15867,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15976,10 +15913,10 @@
       <c r="H2" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -17256,8 +17193,8 @@
       <formula>$C$27</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -17271,7 +17208,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17286,10 +17223,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="49"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I2" s="14" t="s">
@@ -17297,264 +17234,264 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="44" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="47">
         <v>9054</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="48">
         <v>57.5</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="47">
         <f>January!$E5*January!$F5</f>
         <v>520605</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="47">
         <v>8587</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="48">
         <v>56.56</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="47">
         <f>January!$E6*January!$F6</f>
         <v>485680.72000000003</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="47">
         <v>8103</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="48">
         <v>45.5</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="47">
         <f>January!$E7*January!$F7</f>
         <v>368686.5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="47">
         <v>9062</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="48">
         <v>23.99</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="47">
         <f>January!$E8*January!$F8</f>
         <v>217397.37999999998</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="47">
         <v>8565</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="48">
         <v>19.899999999999999</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="47">
         <f>January!$E9*January!$F9</f>
         <v>170443.5</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="47">
         <v>6520</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="48">
         <v>21.5</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="47">
         <f>January!$E10*January!$F10</f>
         <v>140180</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="47">
         <v>8475</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="48">
         <v>12.99</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="47">
         <f>January!$E11*January!$F11</f>
         <v>110090.25</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="47">
         <v>2142</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="48">
         <v>45.99</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="47">
         <f>January!$E12*January!$F12</f>
         <v>98510.58</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="47">
         <v>4057</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="48">
         <v>10.99</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="47">
         <f>January!$E13*January!$F13</f>
         <v>44586.43</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="47">
         <v>2014</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="48">
         <v>14.99</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="47">
         <f>January!$E14*January!$F14</f>
         <v>30189.86</v>
       </c>
@@ -17564,7 +17501,7 @@
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -17576,7 +17513,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17594,28 +17531,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="49" t="s">
         <v>159</v>
       </c>
       <c r="K1" t="s">
@@ -17626,794 +17563,794 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="56">
+      <c r="A2" s="50">
         <v>43763</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="51">
         <v>50000000</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="60">
+      <c r="F2" s="54">
         <f>IF((A2-$A$2)*12/365=0,0,VLOOKUP((A2-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="57">
+      <c r="G2" s="51">
         <f>IF(C2="-",(B2-D2)*F2,IF(C2="+",B2*F2,B2*F2))</f>
         <v>0</v>
       </c>
-      <c r="H2" s="57">
+      <c r="H2" s="51">
         <f>IF(C2="-",B2+G2-D2,IF(C2="+",B2+G2+D2,B2+G2))</f>
         <v>50000000</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" s="61">
+      <c r="L2" s="55">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="56">
+      <c r="A3" s="50">
         <v>43794</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="51">
         <f>H2</f>
         <v>50000000</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="60">
+      <c r="F3" s="54">
         <f>IF((A3-$A$2)*12/365=0,0,VLOOKUP((A3-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>3.5833333333333329E-3</v>
       </c>
-      <c r="G3" s="57">
+      <c r="G3" s="51">
         <f t="shared" ref="G3:G6" si="0">IF(C3="-",(B3-D3)*F3,IF(C3="+",B3*F3,B3*F3))</f>
         <v>179166.66666666666</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="51">
         <f t="shared" ref="H3:H6" si="1">IF(C3="-",B3+G3-D3,IF(C3="+",B3+G3+D3,B3+G3))</f>
         <v>50179166.666666664</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
-      <c r="L3" s="61">
+      <c r="L3" s="55">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
+      <c r="A4" s="50">
         <v>43824</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="51">
         <f t="shared" ref="B4:B31" si="2">H3</f>
         <v>50179166.666666664</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="60">
+      <c r="F4" s="54">
         <f>IF((A4-$A$2)*12/365=0,0,VLOOKUP((A4-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>3.5833333333333329E-3</v>
       </c>
-      <c r="G4" s="57">
+      <c r="G4" s="51">
         <f t="shared" si="0"/>
         <v>179808.68055555553</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="51">
         <f t="shared" si="1"/>
         <v>50358975.347222216</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
-      <c r="L4" s="61">
+      <c r="L4" s="55">
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
+      <c r="A5" s="50">
         <v>43855</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="51">
         <f>H4</f>
         <v>50358975.347222216</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="56">
         <v>10000000</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="57">
         <v>43841</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="54">
         <f>IF((A5-$A$2)*12/365=0,0,VLOOKUP((A5-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G5" s="57">
+      <c r="G5" s="51">
         <f t="shared" si="0"/>
         <v>161435.90138888886</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="51">
         <f>IF(C5="-",B5+G5-D5,IF(C5="+",B5+G5+D5,B5+G5))</f>
         <v>40520411.248611107</v>
       </c>
       <c r="K5">
         <v>6</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="55">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+      <c r="A6" s="50">
         <v>43886</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="51">
         <f>H5</f>
         <v>40520411.248611107</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="56">
         <v>10000000</v>
       </c>
-      <c r="E6" s="63">
+      <c r="E6" s="57">
         <v>43877</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="54">
         <f>IF((A6-$A$2)*12/365=0,0,VLOOKUP((A6-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="51">
         <f t="shared" si="0"/>
         <v>162081.64499444445</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="51">
         <f t="shared" si="1"/>
         <v>50682492.893605553</v>
       </c>
       <c r="K6">
         <v>9</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="55">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
+      <c r="A7" s="50">
         <v>43915</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="51">
         <f t="shared" si="2"/>
         <v>50682492.893605553</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="G7" s="57">
-        <f>IF(C7="-",(B7-D7)*F8,IF(C7="+",B7*F8,B7*F8))</f>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
+      <c r="G7" s="51">
+        <f t="shared" ref="G7:G31" si="3">IF(C7="-",(B7-D7)*F8,IF(C7="+",B7*F8,B7*F8))</f>
         <v>202729.9715744222</v>
       </c>
-      <c r="H7" s="57">
-        <f t="shared" ref="H7:H31" si="3">(B7+C7+G7)-D7</f>
+      <c r="H7" s="51">
+        <f t="shared" ref="H7:H31" si="4">(B7+C7+G7)-D7</f>
         <v>50885222.865179978</v>
       </c>
       <c r="K7">
         <v>12</v>
       </c>
-      <c r="L7" s="61">
+      <c r="L7" s="55">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+      <c r="A8" s="50">
         <v>43946</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="51">
         <f t="shared" si="2"/>
         <v>50885222.865179978</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="60">
+      <c r="F8" s="54">
         <f>IF((A7-$A$2)*12/365=0,0,VLOOKUP((A7-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G8" s="57">
-        <f>IF(C8="-",(B8-D8)*F9,IF(C8="+",B8*F9,B8*F9))</f>
+      <c r="G8" s="51">
+        <f t="shared" si="3"/>
         <v>233223.93813207489</v>
       </c>
-      <c r="H8" s="57">
-        <f t="shared" si="3"/>
+      <c r="H8" s="51">
+        <f t="shared" si="4"/>
         <v>51118446.803312056</v>
       </c>
       <c r="K8">
         <v>24</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="55">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
+      <c r="A9" s="50">
         <v>43976</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="51">
         <f t="shared" si="2"/>
         <v>51118446.803312056</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="60">
+      <c r="F9" s="54">
         <f>IF((A8-$A$2)*12/365=0,0,VLOOKUP((A8-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>4.5833333333333334E-3</v>
       </c>
-      <c r="G9" s="57">
-        <f>IF(C9="-",(B9-D9)*F10,IF(C9="+",B9*F10,B9*F10))</f>
+      <c r="G9" s="51">
+        <f t="shared" si="3"/>
         <v>234292.88118184693</v>
       </c>
-      <c r="H9" s="57">
-        <f t="shared" si="3"/>
+      <c r="H9" s="51">
+        <f t="shared" si="4"/>
         <v>51352739.684493899</v>
       </c>
       <c r="K9">
         <v>36</v>
       </c>
-      <c r="L9" s="61">
+      <c r="L9" s="55">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
+      <c r="A10" s="50">
         <v>44007</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="51">
         <f t="shared" si="2"/>
         <v>51352739.684493899</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="60">
+      <c r="F10" s="54">
         <f>IF((A9-$A$2)*12/365=0,0,VLOOKUP((A9-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>4.5833333333333334E-3</v>
       </c>
-      <c r="G10" s="57">
-        <f>IF(C10="-",(B10-D10)*F11,IF(C10="+",B10*F11,B10*F11))</f>
+      <c r="G10" s="51">
+        <f t="shared" si="3"/>
         <v>235366.72355393038</v>
       </c>
-      <c r="H10" s="57">
-        <f t="shared" si="3"/>
+      <c r="H10" s="51">
+        <f t="shared" si="4"/>
         <v>51588106.408047833</v>
       </c>
       <c r="K10">
         <v>48</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10" s="55">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="56">
+      <c r="A11" s="50">
         <v>44037</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="51">
         <f t="shared" si="2"/>
         <v>51588106.408047833</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="60">
+      <c r="F11" s="54">
         <f>IF((A10-$A$2)*12/365=0,0,VLOOKUP((A10-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>4.5833333333333334E-3</v>
       </c>
-      <c r="G11" s="57">
-        <f>IF(C11="-",(B11-D11)*F12,IF(C11="+",B11*F12,B11*F12))</f>
+      <c r="G11" s="51">
+        <f t="shared" si="3"/>
         <v>227847.46996887794</v>
       </c>
-      <c r="H11" s="57">
-        <f t="shared" si="3"/>
+      <c r="H11" s="51">
+        <f t="shared" si="4"/>
         <v>51815953.87801671</v>
       </c>
       <c r="K11">
         <v>60</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="55">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+      <c r="A12" s="50">
         <v>44068</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="51">
         <f t="shared" si="2"/>
         <v>51815953.87801671</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="60">
+      <c r="F12" s="54">
         <f>IF((A11-$A$2)*12/365=0,0,VLOOKUP((A11-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>4.4166666666666668E-3</v>
       </c>
-      <c r="G12" s="57">
-        <f>IF(C12="-",(B12-D12)*F13,IF(C12="+",B12*F13,B12*F13))</f>
+      <c r="G12" s="51">
+        <f t="shared" si="3"/>
         <v>228853.79629457381</v>
       </c>
-      <c r="H12" s="57">
-        <f t="shared" si="3"/>
+      <c r="H12" s="51">
+        <f t="shared" si="4"/>
         <v>52044807.674311288</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="56">
+      <c r="A13" s="50">
         <v>44099</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="51">
         <f t="shared" si="2"/>
         <v>52044807.674311288</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="60">
+      <c r="F13" s="54">
         <f>IF((A12-$A$2)*12/365=0,0,VLOOKUP((A12-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>4.4166666666666668E-3</v>
       </c>
-      <c r="G13" s="57">
-        <f>IF(C13="-",(B13-D13)*F14,IF(C13="+",B13*F14,B13*F14))</f>
+      <c r="G13" s="51">
+        <f t="shared" si="3"/>
         <v>229864.56722820821</v>
       </c>
-      <c r="H13" s="57">
-        <f t="shared" si="3"/>
+      <c r="H13" s="51">
+        <f t="shared" si="4"/>
         <v>52274672.241539493</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
+      <c r="A14" s="50">
         <v>44129</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="51">
         <f t="shared" si="2"/>
         <v>52274672.241539493</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="60">
+      <c r="F14" s="54">
         <f>IF((A13-$A$2)*12/365=0,0,VLOOKUP((A13-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>4.4166666666666668E-3</v>
       </c>
-      <c r="G14" s="57">
-        <f>IF(C14="-",(B14-D14)*F15,IF(C14="+",B14*F15,B14*F15))</f>
+      <c r="G14" s="51">
+        <f t="shared" si="3"/>
         <v>296223.14270205714</v>
       </c>
-      <c r="H14" s="57">
-        <f t="shared" si="3"/>
+      <c r="H14" s="51">
+        <f t="shared" si="4"/>
         <v>52570895.384241551</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="56">
+      <c r="A15" s="50">
         <v>44160</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="51">
         <f t="shared" si="2"/>
         <v>52570895.384241551</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="60">
+      <c r="F15" s="54">
         <f>IF((A14-$A$2)*12/365=0,0,VLOOKUP((A14-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>5.6666666666666671E-3</v>
       </c>
-      <c r="G15" s="57">
-        <f>IF(C15="-",(B15-D15)*F16,IF(C15="+",B15*F16,B15*F16))</f>
+      <c r="G15" s="51">
+        <f t="shared" si="3"/>
         <v>297901.74051070213</v>
       </c>
-      <c r="H15" s="57">
-        <f t="shared" si="3"/>
+      <c r="H15" s="51">
+        <f t="shared" si="4"/>
         <v>52868797.124752253</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
+      <c r="A16" s="50">
         <v>44190</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="51">
         <f t="shared" si="2"/>
         <v>52868797.124752253</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="60">
+      <c r="F16" s="54">
         <f>IF((A15-$A$2)*12/365=0,0,VLOOKUP((A15-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>5.6666666666666671E-3</v>
       </c>
-      <c r="G16" s="57">
-        <f>IF(C16="-",(B16-D16)*F17,IF(C16="+",B16*F17,B16*F17))</f>
+      <c r="G16" s="51">
+        <f t="shared" si="3"/>
         <v>299589.85037359613</v>
       </c>
-      <c r="H16" s="57">
-        <f t="shared" si="3"/>
+      <c r="H16" s="51">
+        <f t="shared" si="4"/>
         <v>53168386.975125849</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="56">
+      <c r="A17" s="50">
         <v>44221</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="51">
         <f t="shared" si="2"/>
         <v>53168386.975125849</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="60">
+      <c r="F17" s="54">
         <f>IF((A16-$A$2)*12/365=0,0,VLOOKUP((A16-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>5.6666666666666671E-3</v>
       </c>
-      <c r="G17" s="57">
-        <f>IF(C17="-",(B17-D17)*F18,IF(C17="+",B17*F18,B17*F18))</f>
+      <c r="G17" s="51">
+        <f t="shared" si="3"/>
         <v>301287.52619237982</v>
       </c>
-      <c r="H17" s="57">
-        <f t="shared" si="3"/>
+      <c r="H17" s="51">
+        <f t="shared" si="4"/>
         <v>53469674.501318231</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="56">
+      <c r="A18" s="50">
         <v>44252</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="51">
         <f t="shared" si="2"/>
         <v>53469674.501318231</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="60">
+      <c r="F18" s="54">
         <f>IF((A17-$A$2)*12/365=0,0,VLOOKUP((A17-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>5.6666666666666671E-3</v>
       </c>
-      <c r="G18" s="57">
-        <f>IF(C18="-",(B18-D18)*F19,IF(C18="+",B18*F19,B18*F19))</f>
+      <c r="G18" s="51">
+        <f t="shared" si="3"/>
         <v>302994.82217413664</v>
       </c>
-      <c r="H18" s="57">
-        <f t="shared" si="3"/>
+      <c r="H18" s="51">
+        <f t="shared" si="4"/>
         <v>53772669.323492371</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="56">
+      <c r="A19" s="50">
         <v>44280</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="51">
         <f t="shared" si="2"/>
         <v>53772669.323492371</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="60">
+      <c r="F19" s="54">
         <f>IF((A18-$A$2)*12/365=0,0,VLOOKUP((A18-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>5.6666666666666671E-3</v>
       </c>
-      <c r="G19" s="57">
-        <f>IF(C19="-",(B19-D19)*F20,IF(C19="+",B19*F20,B19*F20))</f>
+      <c r="G19" s="51">
+        <f t="shared" si="3"/>
         <v>304711.79283312347</v>
       </c>
-      <c r="H19" s="57">
-        <f t="shared" si="3"/>
+      <c r="H19" s="51">
+        <f t="shared" si="4"/>
         <v>54077381.116325498</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
+      <c r="A20" s="50">
         <v>44311</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="51">
         <f t="shared" si="2"/>
         <v>54077381.116325498</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="60">
+      <c r="F20" s="54">
         <f>IF((A19-$A$2)*12/365=0,0,VLOOKUP((A19-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>5.6666666666666671E-3</v>
       </c>
-      <c r="G20" s="57">
-        <f>IF(C20="-",(B20-D20)*F21,IF(C20="+",B20*F21,B20*F21))</f>
+      <c r="G20" s="51">
+        <f t="shared" si="3"/>
         <v>306438.49299251119</v>
       </c>
-      <c r="H20" s="57">
-        <f t="shared" si="3"/>
+      <c r="H20" s="51">
+        <f t="shared" si="4"/>
         <v>54383819.609318011</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="56">
+      <c r="A21" s="50">
         <v>44341</v>
       </c>
-      <c r="B21" s="57">
+      <c r="B21" s="51">
         <f t="shared" si="2"/>
         <v>54383819.609318011</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="60">
+      <c r="F21" s="54">
         <f>IF((A20-$A$2)*12/365=0,0,VLOOKUP((A20-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>5.6666666666666671E-3</v>
       </c>
-      <c r="G21" s="57">
-        <f>IF(C21="-",(B21-D21)*F22,IF(C21="+",B21*F22,B21*F22))</f>
+      <c r="G21" s="51">
+        <f t="shared" si="3"/>
         <v>308174.97778613539</v>
       </c>
-      <c r="H21" s="57">
-        <f t="shared" si="3"/>
+      <c r="H21" s="51">
+        <f t="shared" si="4"/>
         <v>54691994.587104149</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="56">
+      <c r="A22" s="50">
         <v>44372</v>
       </c>
-      <c r="B22" s="57">
+      <c r="B22" s="51">
         <f t="shared" si="2"/>
         <v>54691994.587104149</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="60">
+      <c r="F22" s="54">
         <f>IF((A21-$A$2)*12/365=0,0,VLOOKUP((A21-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>5.6666666666666671E-3</v>
       </c>
-      <c r="G22" s="57">
-        <f>IF(C22="-",(B22-D22)*F23,IF(C22="+",B22*F23,B22*F23))</f>
+      <c r="G22" s="51">
+        <f t="shared" si="3"/>
         <v>309921.30266025686</v>
       </c>
-      <c r="H22" s="57">
-        <f t="shared" si="3"/>
+      <c r="H22" s="51">
+        <f t="shared" si="4"/>
         <v>55001915.889764406</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="56">
+      <c r="A23" s="50">
         <v>44402</v>
       </c>
-      <c r="B23" s="57">
+      <c r="B23" s="51">
         <f t="shared" si="2"/>
         <v>55001915.889764406</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="60">
+      <c r="F23" s="54">
         <f>IF((A22-$A$2)*12/365=0,0,VLOOKUP((A22-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>5.6666666666666671E-3</v>
       </c>
-      <c r="G23" s="57">
-        <f>IF(C23="-",(B23-D23)*F24,IF(C23="+",B23*F24,B23*F24))</f>
+      <c r="G23" s="51">
+        <f t="shared" si="3"/>
         <v>311677.52337533166</v>
       </c>
-      <c r="H23" s="57">
-        <f t="shared" si="3"/>
+      <c r="H23" s="51">
+        <f t="shared" si="4"/>
         <v>55313593.413139738</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="56">
+      <c r="A24" s="50">
         <v>44433</v>
       </c>
-      <c r="B24" s="57">
+      <c r="B24" s="51">
         <f t="shared" si="2"/>
         <v>55313593.413139738</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="60">
+      <c r="F24" s="54">
         <f>IF((A23-$A$2)*12/365=0,0,VLOOKUP((A23-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>5.6666666666666671E-3</v>
       </c>
-      <c r="G24" s="57">
-        <f>IF(C24="-",(B24-D24)*F25,IF(C24="+",B24*F25,B24*F25))</f>
+      <c r="G24" s="51">
+        <f t="shared" si="3"/>
         <v>313443.69600779185</v>
       </c>
-      <c r="H24" s="57">
-        <f t="shared" si="3"/>
+      <c r="H24" s="51">
+        <f t="shared" si="4"/>
         <v>55627037.109147526</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="56">
+      <c r="A25" s="50">
         <v>44464</v>
       </c>
-      <c r="B25" s="57">
+      <c r="B25" s="51">
         <f t="shared" si="2"/>
         <v>55627037.109147526</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="60">
+      <c r="F25" s="54">
         <f>IF((A24-$A$2)*12/365=0,0,VLOOKUP((A24-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>5.6666666666666671E-3</v>
       </c>
-      <c r="G25" s="57">
-        <f>IF(C25="-",(B25-D25)*F26,IF(C25="+",B25*F26,B25*F26))</f>
+      <c r="G25" s="51">
+        <f t="shared" si="3"/>
         <v>315219.87695183599</v>
       </c>
-      <c r="H25" s="57">
-        <f t="shared" si="3"/>
+      <c r="H25" s="51">
+        <f t="shared" si="4"/>
         <v>55942256.986099362</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="56">
+      <c r="A26" s="50">
         <v>44494</v>
       </c>
-      <c r="B26" s="57">
+      <c r="B26" s="51">
         <f t="shared" si="2"/>
         <v>55942256.986099362</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="60">
+      <c r="F26" s="54">
         <f>IF((A25-$A$2)*12/365=0,0,VLOOKUP((A25-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>5.6666666666666671E-3</v>
       </c>
-      <c r="G26" s="57">
-        <f>IF(C26="-",(B26-D26)*F27,IF(C26="+",B26*F27,B26*F27))</f>
+      <c r="G26" s="51">
+        <f t="shared" si="3"/>
         <v>317006.12292122975</v>
       </c>
-      <c r="H26" s="57">
-        <f t="shared" si="3"/>
+      <c r="H26" s="51">
+        <f t="shared" si="4"/>
         <v>56259263.109020591</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="56">
+      <c r="A27" s="50">
         <v>44525</v>
       </c>
-      <c r="B27" s="57">
+      <c r="B27" s="51">
         <f t="shared" si="2"/>
         <v>56259263.109020591</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="60">
+      <c r="F27" s="54">
         <f>IF((A26-$A$2)*12/365=0,0,VLOOKUP((A26-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>5.6666666666666671E-3</v>
       </c>
-      <c r="G27" s="57">
-        <f>IF(C27="-",(B27-D27)*F28,IF(C27="+",B27*F28,B27*F28))</f>
+      <c r="G27" s="51">
+        <f t="shared" si="3"/>
         <v>318802.49095111672</v>
       </c>
-      <c r="H27" s="57">
-        <f t="shared" si="3"/>
+      <c r="H27" s="51">
+        <f t="shared" si="4"/>
         <v>56578065.599971704</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="56">
+      <c r="A28" s="50">
         <v>44555</v>
       </c>
-      <c r="B28" s="57">
+      <c r="B28" s="51">
         <f t="shared" si="2"/>
         <v>56578065.599971704</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="60">
+      <c r="F28" s="54">
         <f>IF((A27-$A$2)*12/365=0,0,VLOOKUP((A27-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>5.6666666666666671E-3</v>
       </c>
-      <c r="G28" s="57">
-        <f>IF(C28="-",(B28-D28)*F29,IF(C28="+",B28*F29,B28*F29))</f>
+      <c r="G28" s="51">
+        <f t="shared" si="3"/>
         <v>320609.03839983966</v>
       </c>
-      <c r="H28" s="57">
-        <f t="shared" si="3"/>
+      <c r="H28" s="51">
+        <f t="shared" si="4"/>
         <v>56898674.638371542</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="56">
+      <c r="A29" s="50">
         <v>44586</v>
       </c>
-      <c r="B29" s="57">
+      <c r="B29" s="51">
         <f t="shared" si="2"/>
         <v>56898674.638371542</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="59"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="60">
+      <c r="F29" s="54">
         <f>IF((A28-$A$2)*12/365=0,0,VLOOKUP((A28-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>5.6666666666666671E-3</v>
       </c>
-      <c r="G29" s="57">
-        <f>IF(C29="-",(B29-D29)*F30,IF(C29="+",B29*F30,B29*F30))</f>
+      <c r="G29" s="51">
+        <f t="shared" si="3"/>
         <v>322425.82295077207</v>
       </c>
-      <c r="H29" s="57">
-        <f t="shared" si="3"/>
+      <c r="H29" s="51">
+        <f t="shared" si="4"/>
         <v>57221100.461322315</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="56">
+      <c r="A30" s="50">
         <v>44617</v>
       </c>
-      <c r="B30" s="57">
+      <c r="B30" s="51">
         <f t="shared" si="2"/>
         <v>57221100.461322315</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="60">
+      <c r="F30" s="54">
         <f>IF((A29-$A$2)*12/365=0,0,VLOOKUP((A29-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>5.6666666666666671E-3</v>
       </c>
-      <c r="G30" s="57">
-        <f>IF(C30="-",(B30-D30)*F31,IF(C30="+",B30*F31,B30*F31))</f>
+      <c r="G30" s="51">
+        <f t="shared" si="3"/>
         <v>324252.9026141598</v>
       </c>
-      <c r="H30" s="57">
-        <f t="shared" si="3"/>
+      <c r="H30" s="51">
+        <f t="shared" si="4"/>
         <v>57545353.363936476</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="56">
+      <c r="A31" s="50">
         <v>44645</v>
       </c>
-      <c r="B31" s="57">
+      <c r="B31" s="51">
         <f t="shared" si="2"/>
         <v>57545353.363936476</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="59"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="60">
+      <c r="F31" s="54">
         <f>IF((A30-$A$2)*12/365=0,0,VLOOKUP((A30-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>5.6666666666666671E-3</v>
       </c>
-      <c r="G31" s="57">
-        <f>IF(C31="-",(B31-D31)*F32,IF(C31="+",B31*F32,B31*F32))</f>
+      <c r="G31" s="51">
+        <f t="shared" si="3"/>
         <v>326090.33572897338</v>
       </c>
-      <c r="H31" s="57">
-        <f t="shared" si="3"/>
+      <c r="H31" s="51">
+        <f t="shared" si="4"/>
         <v>57871443.69966545</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32" s="8"/>
-      <c r="F32" s="60">
+      <c r="F32" s="54">
         <f>IF((A31-$A$2)*12/365=0,0,VLOOKUP((A31-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
         <v>5.6666666666666671E-3</v>
       </c>
@@ -18455,7 +18392,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E30" activeCellId="1" sqref="C27 E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18467,66 +18404,66 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>165</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="59">
         <v>1447</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="59">
         <v>2025</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="59">
         <v>2004</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="59">
         <v>2024</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="59">
         <v>2042</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="59">
         <v>2020</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="59">
         <v>1503</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="59">
         <v>2010</v>
       </c>
     </row>
